--- a/output.xlsx
+++ b/output.xlsx
@@ -588,7 +588,7 @@
         <v>93052526</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>2024</v>
@@ -598,7 +598,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'id': 1, 'roster': {'appliedStatTotal': 246.62, 'entries': [{'acquisitionDate': 1724469554158, 'acquisitionType': 'DRAFT', 'injuryStatus': 'NORMAL', 'lineupSlotId': 4, 'pendingTransactionIds': None, 'playerId': 4241389, 'playerPoolEntry': {'appliedStatTotal': 32.6, 'id': 4241389, 'keeperValue': 1, 'keeperValueFuture': 1, 'lineupLocked': True, 'onTeamId': 1, 'player': {'active': True, 'defaultPositionId': 3, 'draftRanksByRankType': {'STANDARD': {'auctionValue': 55, 'published': False, 'rank': 4, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 0}, 'PPR': {'auctionValue': 55, 'published': False, 'rank': 4, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 0}}, 'droppable': False, 'eligibleSlots': [3, 4, 5, 23, 7, 20, 21], 'firstName': 'CeeDee', 'fullName': 'CeeDee Lamb', 'id': 4241389, 'injured': False, 'injuryStatus': 'ACTIVE', 'lastName': 'Lamb', 'lastNewsDate': 1726436076000, 'lastVideoDate': 1726497149000, 'outlooks': {'outlooksByWeek': {'1': 'CeeDee Lamb is fresh off a lucrative contract extension and should be primed for another huge season in Dallas as the undisputed top option.  Dak Prescott returns under center, and the tandem connected for career-best numbers for Lamb in 2023.  Lamb caught a staggering 135 passes for 1,749 yards and 12 touchdowns.  With a lackluster running game and limited depth behind Lamb at wideout, the star wideout should see all the opportunities he can handle.  Unfortunately, Week 1 may provide a stiff test, as Lamb not only may not be in game shape yet due to signing the extension late, but Dallas will also face a Cleveland pass defense that allowed the fewest yards in the NFL last season.', '2': 'CeeDee Lamb was targeted 10 times in the season opener for Dallas, parlaying those opportunities into five catches for 61 yards.  Not only did Lamb show little rust, but he barely saw the ball in the second half as the game got out of hand, so there is little concern over his overall stat line and future projections. With Dak Prescott locked up with a lucrative contact extension, the duo can focus solely on football.  However, the Cowboys will face a Saints defense in Week 2 that allowed just 135 passing yards in its season opener, and finished 10th in the NFL in passing yards allowed in 2023.'}}, 'ownership': {'auctionValueAverage': 52.02091633466136, 'averageDraftPosition': 4.684979441868603, 'percentChange': 0.0036174445638295083, 'percentOwned': 99.93267096397975, 'percentStarted': 98.85468518910598}, 'proTeamId': 6, 'rankings': {'0': [{'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 5, 'rankSourceId': 5, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 2.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 11, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 1.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}], '1': [{'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 5, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 2.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 3, 'rankSourceId': 11, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 1.875, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 3, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}], '2': [{'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': False, 'rank': 2, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 2.0, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 1.375, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}], '3': [{'auctionValue': 0, 'published': False, 'rank': 1, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': False, 'rank': 1, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': False, 'rank': 1, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': False, 'rank': 2, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': False, 'rank': 1, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}]}, 'seasonOutlook': "Lamb led the entire fantasy football world in fantasy points last season, surpassing 25 points in eight games and truly dominating the second half of the season. Lamb started slow -- a career theme, actually -- but from Week 8 on, he averaged 28.5 fantasy points per game. His 313.6 fantasy points in the final 11 weeks alone topped the full-season performance of all but nine NFL players. Lamb is not only a clear top-five fantasy pick, but with his durability and the Cowboys' high-octane offense, one can make the case for him as a solid choice to go No. 1 overall.", 'stats': [{'appliedAverage': 26.07058823529412, 'appliedStats': {'53': 135.0, '72': -4.0, '24': 11.3, '56': 35.0, '25': 12.0, '57': 5.0, '42': 174.9, '43': 72.0, '44': 2.0}, 'appliedTotal': 443.20000000000005, 'externalId': '2023', 'id': '002023', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2023, 'statSourceId': 0, 'statSplitTypeId': 0, 'stats': {'23': 14.0, '24': 113.0, '25': 2.0, '27': 18.0, '28': 7.0, '29': 1.0, '30': 1.0, '39': 8.07142857, '40': 6.64705882, '41': 135.0, '42': 1749.0, '43': 12.0, '44': 1.0, '45': 2.0, '46': 1.0, '47': 342.0, '48': 166.0, '49': 76.0, '50': 62.0, '51': 27.0, '52': 9.0, '53': 135.0, '54': 19.0, '55': 7.0, '56': 7.0, '57': 1.0, '58': 181.0, '59': 680.0, '60': 12.95555556, '61': 102.88235294, '67': 3.0, '68': 3.0, '71': 2.0, '72': 2.0, '73': 2.0, '108': 1.0, '109': 1.0, '155': 12.0, '156': 5.0, '158': 86.0, '179': 1.0, '180': 1.0, '183': 3.0, '184': 5.0, '185': 2.0, '210': 17.0, '212': 6.0, '213': 80.0}}, {'appliedAverage': 16.3, 'appliedStats': {'53': 9.0, '24': 2.5, '42': 15.100000000000001, '43': 6.0}, 'appliedTotal': 32.6, 'externalId': '2024', 'id': '002024', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2024, 'statSourceId': 0, 'statSplitTypeId': 0, 'stats': {'23': 3.0, '24': 25.0, '27': 5.0, '28': 2.0, '29': 1.0, '30': 1.0, '39': 8.33333333, '40': 12.5, '41': 9.0, '42': 151.0, '43': 1.0, '45': 1.0, '46': 1.0, '47': 30.0, '48': 15.0, '49': 7.0, '50': 5.0, '51': 2.0, '53': 9.0, '54': 1.0, '58': 17.0, '59': 89.0, '60': 16.77777778, '61': 75.5, '108': 1.0, '109': 1.0, '155': 1.0, '156': 1.0, '158': 6.0, '210': 2.0, '212': 2.0, '213': 5.0}}, {'appliedStats': {'37': 0.008400000000000001, '38': 0.00028649999999999997, '72': -0.154323118, '42': 9.269836606, '43': 2.9889260039999996, '44': 0.048442506, '53': 7.273066778, '24': 0.627405203, '56': 1.939679315, '25': 0.250724208, '57': 0.06, '26': 0.004889618, '63': 0.00372}, 'appliedTotal': 22.32105362, 'externalId': '20242', 'id': '1120242', 'proTeamId': 0, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 1, 'stats': {'23': 0.994772935, '24': 6.27405203, '25': 0.041787368, '26': 0.002444809, '27': 1.0, '35': 0.001841105, '36': 0.001288773, '37': 0.00168, '38': 5.73e-05, '39': 6.307019229, '40': 6.27405203, '42': 92.69836606, '43': 0.498154334, '44': 0.024221253, '45': 0.015002371, '46': 0.009804049, '47': 18.0, '48': 9.0, '49': 4.0, '50': 3.0, '51': 1.0, '53': 7.273066778, '56': 0.387935863, '57': 0.012, '58': 10.70694067, '60': 12.74543035, '61': 92.69836606, '62': 0.026666062, '63': 0.00062, '66': 0.016942503, '67': 0.123871442, '68': 0.140813945, '70': 0.007793552, '71': 0.069368007, '72': 0.077161559, '73': 0.077161559, '210': 1.0, '212': 0.425315312, '213': 4.350102185}}, {'appliedStats': {'37': 0.00415, '38': 0.0001415, '72': -0.15635066, '42': 9.457953569, '43': 2.652857778, '44': 0.043448738, '53': 7.634868556, '24': 0.44343339190000003, '56': 1.994099625, '25': 0.21124968, '57': 0.0615, '26': 0.004163194, '63': 0.003738}, 'appliedTotal': 22.355253371899995, 'externalId': '20241', 'id': '1120241', 'proTeamId': 0, 'scoringPeriodId': 1, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 1, 'stats': {'23': 0.683716886, '24': 4.434333919, '25': 0.03520828, '26': 0.002081597, '35': 0.001261801, '36': 0.000883261, '37': 0.00083, '38': 2.83e-05, '39': 6.485628787, '40': 4.434333919, '42': 94.57953569, '43': 0.442142963, '44': 0.021724369, '45': 0.014531855, '46': 0.009496567, '47': 18.0, '48': 9.0, '49': 4.0, '50': 3.0, '51': 1.0, '53': 7.634868556, '56': 0.398819925, '57': 0.0123, '58': 11.01346949, '60': 12.38784073, '61': 94.57953569, '62': 0.023805965, '63': 0.000623, '66': 0.011644743, '67': 0.130033479, '68': 0.141678222, '70': 0.005356582, '71': 0.072818748, '72': 0.07817533, '73': 0.07817533, '210': 1.0, '212': 0.339394272, '213': 4.461540098}}, {'appliedAverage': 0.0, 'appliedStats': {}, 'appliedTotal': 0.0, 'externalId': '2023', 'id': '102023', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2023, 'statSourceId': 1, 'statSplitTypeId': 0, 'stats': {'210': 15.11764706}}, {'appliedAverage': 23.298337917500003, 'appliedStats': {'37': 0.147065105, '38': 0.00501877, '72': -2.50757353, '42': 154.0135386, '43': 53.365312356000004, '44': 0.860541442, '53': 118.3022604, '24': 10.44934095, '56': 32.56849088, '25': 4.4160537, '57': 1.007272915, '26': 0.085692224, '63': 0.060392867999999995}, 'appliedTotal': 372.77340668000005, 'externalId': '20242', 'id': '1220242', 'proTeamId': 0, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 2, 'stats': {'23': 16.01384628, '24': 104.4934095, '25': 0.73600895, '26': 0.042846112, '27': 20.0, '28': 10.0, '29': 5.0, '30': 4.0, '31': 2.0, '33': 3.0, '34': 1.0, '35': 0.029640958, '36': 0.020748671, '37': 0.029413021, '38': 0.001003754, '39': 6.52519124, '40': 6.530838091, '42': 1540.135386, '43': 8.894218726, '44': 0.430270721, '45': 0.272143954, '46': 0.177846074, '47': 308.0, '48': 154.0, '49': 77.0, '50': 61.0, '51': 30.0, '53': 118.3022604, '56': 6.513698176, '57': 0.201454583, '58': 172.4214041, '60': 13.01864717, '61': 96.25846165, '62': 0.473116832, '63': 0.010065478, '66': 0.272740274, '67': 2.014868283, '68': 2.287608557, '70': 0.125460526, '71': 1.128326238, '72': 1.253786765, '73': 1.253786765, '210': 16.0, '212': 6.999949665, '213': 71.99078425}}, {'appliedAverage': 22.99057035133334, 'appliedStats': {'37': 0.09286576499999999, '38': 0.0031691500000000004, '72': -2.34998034, '42': 140.6375137, '43': 51.297680111999995, '44': 0.8287027, '53': 112.8483528, '24': 8.590268806000001, '56': 27.196274705, '25': 4.724357028, '57': 0.8411219000000001, '26': 0.091825218, '63': 0.056403726}, 'appliedTotal': 344.85855527000007, 'externalId': '2024', 'id': '102024', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 0, 'stats': {'23': 12.59574791, '24': 85.90268806, '25': 0.787392838, '26': 0.045912609, '27': 17.0, '28': 8.0, '29': 4.0, '30': 3.0, '31': 1.0, '33': 2.0, '34': 1.0, '35': 0.023258451, '36': 0.016280916, '37': 0.018573153, '38': 0.00063383, '39': 6.819975174, '40': 5.682278976, '42': 1406.375137, '43': 8.549613352, '44': 0.41435135, '45': 0.273050015, '46': 0.178438185, '47': 281.0, '48': 140.0, '49': 70.0, '50': 56.0, '51': 28.0, '53': 112.8483528, '56': 5.439254941, '57': 0.16822438, '58': 159.8549407, '60': 12.46252252, '61': 93.02870559, '62': 0.460263958, '63': 0.009400621, '66': 0.214524836, '67': 1.921979902, '68': 2.136504738, '70': 0.098681424, '71': 1.076308745, '72': 1.17499017, '73': 1.17499017, '210': 15.11764706, '212': 6.324756161, '213': 66.85053129}}, {'appliedStats': {'53': 4.0, '42': 9.0, '43': 6.0}, 'appliedTotal': 19.0, 'externalId': '401671709', 'id': '01401671709', 'proTeamId': 6, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 0, 'statSplitTypeId': 1, 'stats': {'41': 4.0, '42': 90.0, '43': 1.0, '108': 1.0, '109': 1.0, '45': 1.0, '46': 1.0, '47': 18.0, '48': 9.0, '49': 4.0, '210': 1.0, '50': 3.0, '51': 1.0, '213': 3.0, '53': 4.0, '58': 7.0, '59': 57.0, '60': 22.5, '156': 1.0, '61': 90.0, '158': 6.0}}, {'appliedAverage': 23.184610402333327, 'appliedStats': {'37': 0.13323553999999999, '38': 0.00454682, '72': -2.276652864, '42': 145.6035745, '43': 50.589446412, '44': 0.818215432, '53': 107.2503315, '24': 9.632260573000002, '56': 30.83856854, '25': 4.086262919999999, '57': 0.9550000000000001, '26': 0.079526662, '63': 0.05484}, 'appliedTotal': 347.7691560349999, 'externalId': '20243', 'id': '1220243', 'proTeamId': 0, 'scoringPeriodId': 3, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 2, 'stats': {'23': 14.73095205, '24': 96.32260573, '25': 0.68104382, '26': 0.039763331, '27': 19.0, '28': 9.0, '29': 4.0, '30': 3.0, '31': 1.0, '33': 2.0, '34': 1.0, '35': 0.027261684, '36': 0.019083179, '37': 0.026647108, '38': 0.000909364, '39': 6.538790257, '40': 6.421507049, '42': 1456.035745, '43': 8.431574402, '44': 0.409107716, '45': 0.290853492, '46': 0.190072757, '47': 291.0, '48': 145.0, '49': 72.0, '50': 58.0, '51': 29.0, '53': 107.2503315, '56': 6.167713708, '57': 0.191, '58': 157.4280866, '60': 13.5760489, '61': 97.06904965, '62': 0.448871046, '63': 0.00914, '66': 0.250890625, '67': 1.826637044, '68': 2.07752767, '70': 0.115409688, '71': 1.022916745, '72': 1.138326432, '73': 1.138326432, '210': 15.0, '212': 6.483261592, '213': 67.03099447}}, {'appliedStats': {'53': 5.0, '24': 2.5, '42': 6.1000000000000005}, 'appliedTotal': 13.600000000000001, 'externalId': '401671761', 'id': '01401671761', 'proTeamId': 6, 'scoringPeriodId': 1, 'seasonId': 2024, 'statSourceId': 0, 'statSplitTypeId': 1, 'stats': {'23': 3.0, '24': 25.0, '27': 5.0, '28': 2.0, '29': 1.0, '30': 1.0, '39': 8.333, '40': 25.0, '41': 5.0, '42': 61.0, '47': 12.0, '48': 6.0, '49': 3.0, '50': 2.0, '51': 1.0, '53': 5.0, '54': 1.0, '58': 10.0, '59': 32.0, '60': 12.2, '61': 61.0, '155': 1.0, '210': 1.0, '212': 2.0, '213': 2.0}}], 'universeId': 2}, 'ratings': {'0': {'positionalRanking': 18, 'totalRanking': 47, 'totalRating': 32.6}}, 'rosterLocked': True, 'status': 'ONTEAM', 'tradeLocked': False}, 'status': 'NORMAL'}, {'acquisitionDate': 1724469554158, 'acquisitionType': 'DRAFT', 'injuryStatus': 'NORMAL', 'lineupSlotId': 20, 'pendingTransactionIds': [], 'playerId': 4426515, 'playerPoolEntry': {'appliedStatTotal': 8.2, 'id': 4426515, 'keeperValue': 0, 'keeperValueFuture': 2, 'lineupLocked': True, 'onTeamId': 1, 'player': {'active': True, 'defaultPositionId': 3, 'draftRanksByRankType': {'STANDARD': {'auctionValue': 45, 'published': False, 'rank': 13, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 0}, 'PPR': {'auctionValue': 46, 'published': False, 'rank': 12, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 0}}, 'droppable': True, 'eligibleSlots': [3, 4, 5, 23, 7, 20, 21], 'firstName': 'Puka', 'fullName': 'Puka Nacua', 'id': 4426515, 'injured': True, 'injuryStatus': 'INJURY_RESERVE', 'lastName': 'Nacua', 'lastNewsDate': 1726398215000, 'lastVideoDate': 1725978304000, 'outlooks': {'outlooksByWeek': {'1': "Puka Nacua has been a full participant in recent practices after suffering a knee injury in early August, and he is ready to start for the Rams in Week 1 at the Lions. While Detroit added much needed help to their secondary this offseason, they have a long way to go after allowing 28 receiving touchdowns in 2023, sixth worst in the NFL.  The return of a healthy Cooper Kupp might hurt Nacua's ceiling somewhat, but he still averaged over 8 targets per game when Kupp was active last season. Nacua remains a strong fantasy option to open the season.", '2': "Puka Nacua is slated to be placed in IR after suffering a knee injury in the season opener. He managed 4 receptions for 35 yards before leaving the game midway through the second quarter. Tyler Johnson and Demarcus Robinson will likely move up the depth chart while Nacua is out, and tight end Colby Parkinson might also see increased usage in the passing game. The Rams play a Cardinals defense that has one of the league's worst pass rushes in Week 2, and they are coming off of a Week 1 performance where they allowed 232 receiving yards to Buffalo."}}, 'ownership': {'auctionValueAverage': 37.558764940239044, 'averageDraftPosition': 27.429818038666784, 'percentChange': -2.504123061704533, 'percentOwned': 97.29720540713461, 'percentStarted': 15.204050251054365}, 'proTeamId': 14, 'rankings': {'0': [{'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 8, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 11, 'rankSourceId': 5, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 8, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 8.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 11, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 8, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 7.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}], '1': [{'auctionValue': 0, 'published': True, 'rank': 6, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 8, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 6, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 10, 'rankSourceId': 5, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 6, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 6, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 8.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 8, 'rankSourceId': 11, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 5, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 5.875, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 5, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 6, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}], '2': []}, 'seasonOutlook': "Rostered in just 1.6% of ESPN Fantasy leagues ahead of Week 1 last season, Nacua proved to be the waiver wire's most generous offering. The first-year slotman immediately filled injured Cooper Kupp's shoes to lead the team in routes, targets, catches and yards, while regularly dazzling after the catch (639 YAC, WR5). Nacua's volume dipped after Kupp returned, but the BYU product continued to churn, setting both the NFL rookie receiving yards and receptions records. Given Kupp's age and injury history, Nacua is a good bet to remain Matthew Stafford's most productive pass-catcher again in 2024. He's a solid fantasy WR1.", 'stats': [{'appliedAverage': 19.61764705882353, 'appliedStats': {'53': 105.0, '24': 8.9, '56': 35.0, '42': 148.6, '43': 36.0}, 'appliedTotal': 333.5, 'externalId': '2023', 'id': '002023', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2023, 'statSourceId': 0, 'statSplitTypeId': 0, 'stats': {'23': 12.0, '24': 89.0, '27': 14.0, '28': 5.0, '29': 1.0, '30': 1.0, '39': 7.41666667, '40': 5.23529412, '41': 105.0, '42': 1486.0, '43': 6.0, '45': 1.0, '46': 1.0, '47': 290.0, '48': 142.0, '49': 67.0, '50': 51.0, '51': 22.0, '52': 7.0, '53': 105.0, '54': 14.0, '55': 2.0, '56': 7.0, '58': 160.0, '59': 640.0, '60': 14.15238095, '61': 87.41176471, '67': 1.0, '68': 1.0, '108': 1.0, '109': 1.0, '155': 10.0, '156': 7.0, '158': 36.0, '183': 2.0, '184': 1.0, '185': 2.0, '210': 17.0, '212': 5.0, '213': 68.0}}, {'appliedAverage': 8.2, 'appliedStats': {'53': 4.0, '24': 0.7000000000000001, '42': 3.5}, 'appliedTotal': 8.2, 'externalId': '2024', 'id': '002024', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2024, 'statSourceId': 0, 'statSplitTypeId': 0, 'stats': {'23': 1.0, '24': 7.0, '27': 1.0, '39': 7.0, '40': 7.0, '41': 4.0, '42': 35.0, '47': 7.0, '48': 3.0, '49': 1.0, '50': 1.0, '53': 4.0, '58': 4.0, '59': 17.0, '60': 8.75, '61': 35.0, '156': 1.0, '210': 1.0, '213': 1.0}}, {'appliedStats': {}, 'appliedTotal': 0.0, 'externalId': '20242', 'id': '1120242', 'proTeamId': 0, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 1, 'stats': {}}, {'appliedStats': {'37': 0.003755, '38': 0.000128, '72': -0.131881622, '42': 8.479602555, '43': 2.106134526, '44': 0.037684308, '53': 6.009475386, '24': 0.4224088247, '56': 1.67798439, '25': 0.215147274, '57': 0.052, '26': 0.00356847, '63': 0.0031680000000000002}, 'appliedTotal': 18.879175111699997, 'externalId': '20241', 'id': '1120241', 'proTeamId': 0, 'scoringPeriodId': 1, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 1, 'stats': {'23': 0.68355039, '24': 4.224088247, '25': 0.035857879, '26': 0.001784235, '35': 0.001261492, '36': 0.000883044, '37': 0.000751, '38': 2.56e-05, '39': 6.179629636, '40': 4.224088247, '42': 84.79602555, '43': 0.351022421, '44': 0.018842154, '45': 0.018557482, '46': 0.012127314, '47': 16.0, '48': 8.0, '49': 4.0, '50': 3.0, '51': 1.0, '53': 6.009475386, '56': 0.335596878, '57': 0.0104, '58': 9.265802033, '60': 14.11038736, '61': 84.79602555, '62': 0.020626389, '63': 0.000528, '66': 0.012249201, '67': 0.107689604, '68': 0.119938805, '70': 0.005634632, '71': 0.060306178, '72': 0.065940811, '73': 0.065940811, '210': 1.0, '212': 0.332769422, '213': 3.784007948}}, {'appliedAverage': 0.0, 'appliedStats': {}, 'appliedTotal': 0.0, 'externalId': '2023', 'id': '102023', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2023, 'statSourceId': 1, 'statSplitTypeId': 0, 'stats': {'210': 15.11764706}}, {'appliedStats': {}, 'appliedTotal': 0.0, 'externalId': '401671754', 'id': '01401671754', 'proTeamId': 14, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 0, 'statSplitTypeId': 1, 'stats': {}}, {'appliedAverage': 17.30220733141667, 'appliedStats': {'37': 0.053716155, '38': 0.001833125, '72': -1.491444376, '42': 91.33565127000001, '43': 25.484000844, '44': 0.452071826, '53': 66.99761166, '24': 5.501449084000001, '56': 16.278718115, '25': 2.43348615, '57': 0.5034655100000001, '26': 0.040021014, '63': 0.0359076}, 'appliedTotal': 207.62648797700004, 'externalId': '20242', 'id': '1220242', 'proTeamId': 0, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 2, 'stats': {'23': 8.902987175, '24': 55.01449084, '25': 0.405581025, '26': 0.020010507, '27': 11.0, '28': 5.0, '29': 2.0, '30': 2.0, '31': 1.0, '33': 1.0, '35': 0.016439725, '36': 0.011507807, '37': 0.010743231, '38': 0.000366625, '39': 6.17932945, '40': 4.584540904, '42': 913.3565127, '43': 4.247333474, '44': 0.226035913, '45': 0.225960393, '46': 0.147665117, '47': 182.0, '48': 91.0, '49': 45.0, '50': 36.0, '51': 18.0, '53': 66.99761166, '56': 3.255743623, '57': 0.100693102, '58': 99.53108645, '60': 13.63267272, '61': 76.11304273, '62': 0.24604642, '63': 0.0059846, '66': 0.159541242, '67': 1.20059503, '68': 1.360136272, '70': 0.073388971, '71': 0.672333217, '72': 0.745722188, '73': 0.745722188, '210': 12.0, '212': 4.163409152, '213': 41.38299613}}, {'appliedStats': {'53': 4.0, '24': 0.7000000000000001, '42': 3.5}, 'appliedTotal': 8.2, 'externalId': '401671792', 'id': '01401671792', 'proTeamId': 14, 'scoringPeriodId': 1, 'seasonId': 2024, 'statSourceId': 0, 'statSplitTypeId': 1, 'stats': {'23': 1.0, '24': 7.0, '27': 1.0, '39': 7.0, '40': 7.0, '41': 4.0, '42': 35.0, '47': 7.0, '48': 3.0, '49': 1.0, '50': 1.0, '53': 4.0, '58': 4.0, '59': 17.0, '60': 8.75, '61': 35.0, '156': 1.0, '210': 1.0, '213': 1.0}}, {'appliedAverage': 18.64430825933334, 'appliedStats': {'37': 0.074742155, '38': 0.0025506649999999997, '72': -1.981330754, '42': 123.77897060000001, '43': 35.29001862, '44': 0.62993454, '53': 88.52222168, '24': 7.724230609999999, '56': 20.948828235, '25': 3.914033604, '57': 0.647901905, '26': 0.06477052, '63': 0.047751510000000004}, 'appliedTotal': 279.6646238900001, 'externalId': '2024', 'id': '102024', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 0, 'stats': {'23': 12.41374328, '24': 77.2423061, '25': 0.652338934, '26': 0.03238526, '27': 15.0, '28': 7.0, '29': 3.0, '30': 3.0, '31': 1.0, '33': 2.0, '34': 1.0, '35': 0.022920017, '36': 0.016044012, '37': 0.014948431, '38': 0.000510133, '39': 6.222321852, '40': 5.109413244, '42': 1237.789706, '43': 5.88166977, '44': 0.31496727, '45': 0.313634897, '46': 0.204960405, '47': 247.0, '48': 123.0, '49': 61.0, '50': 49.0, '51': 24.0, '53': 88.52222168, '56': 4.189765647, '57': 0.129580381, '58': 135.6325858, '60': 13.98281339, '61': 81.87714011, '62': 0.34735253, '63': 0.007958585, '66': 0.222453877, '67': 1.586315345, '68': 1.808769222, '70': 0.102328784, '71': 0.888336593, '72': 0.990665377, '73': 0.990665377, '210': 15.11764706, '212': 5.9205953, '213': 55.56591512}}, {'appliedAverage': 18.7975588975, 'appliedStats': {'37': 0.05150285, '38': 0.001757595, '72': -1.612380164, '42': 100.0066617, '43': 25.716801042, '44': 0.458337584, '53': 73.16436588, '24': 5.3933432340000005, '56': 19.49573209, '25': 2.216261766, '57': 0.602960785, '26': 0.036618698, '63': 0.03874371}, 'appliedTotal': 225.57070677, 'externalId': '20243', 'id': '1220243', 'proTeamId': 0, 'scoringPeriodId': 3, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 2, 'stats': {'23': 8.731135345, '24': 53.93343234, '25': 0.369376961, '26': 0.018309349, '27': 10.0, '28': 5.0, '29': 2.0, '30': 2.0, '31': 1.0, '33': 1.0, '35': 0.016120171, '36': 0.01128412, '37': 0.01030057, '38': 0.000351519, '39': 6.177138506, '40': 4.494452695, '42': 1000.066617, '43': 4.286133507, '44': 0.229168792, '45': 0.231380888, '46': 0.15120741, '47': 200.0, '48': 100.0, '49': 50.0, '50': 40.0, '51': 20.0, '53': 73.16436588, '56': 3.899146418, '57': 0.120592157, '58': 108.2757523, '60': 13.66876627, '61': 83.33888473, '62': 0.247478141, '63': 0.006457285, '66': 0.156461663, '67': 1.311103066, '68': 1.467564729, '70': 0.071972365, '71': 0.734217717, '72': 0.806190082, '73': 0.806190082, '210': 12.0, '212': 4.089476123, '213': 45.1955933}}], 'universeId': 2}, 'ratings': {'0': {'positionalRanking': 76, 'totalRanking': 231, 'totalRating': 8.2}}, 'rosterLocked': True, 'status': 'ONTEAM', 'tradeLocked': False}, 'status': 'NORMAL'}, {'acquisitionDate': 1724469554158, 'acquisitionType': 'DRAFT', 'injuryStatus': 'NORMAL', 'lineupSlotId': 2, 'pendingTransactionIds': None, 'playerId': 4429160, 'playerPoolEntry': {'appliedStatTotal': 52.5, 'id': 4429160, 'keeperValue': 0, 'keeperValueFuture': 3, 'lineupLocked': True, 'onTeamId': 1, 'player': {'active': True, 'defaultPositionId': 2, 'draftRanksByRankType': {'STANDARD': {'auctionValue': 19, 'published': False, 'rank': 43, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 0}, 'PPR': {'auctionValue': 19, 'published': False, 'rank': 43, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 0}}, 'droppable': True, 'eligibleSlots': [2, 3, 23, 7, 20, 21], 'firstName': "De'Von", 'fullName': "De'Von Achane", 'id': 4429160, 'injured': False, 'injuryStatus': 'ACTIVE', 'lastName': 'Achane', 'lastNewsDate': 1726198551000, 'lastVideoDate': 1726237416000, 'outlooks': {'outlooksByWeek': {'1': "De'Von Achane will look to catch lightning in a bottle for the Dolphins in Week 1 against Jacksonville. Achane averaged a whopping 7.8 ypc as a rookie, scoring eight times in 11 games. But he also missed six games and tallied double-digit carries just five times while also not factoring much in the passing game, catching 27 balls for a lower ypc than his rushing prowess. Healthy and ready to run, Achane faces a Jaguars defense that ranked ninth in total rushing allowed, but a getable 4.2 ypc and 13 rushes of 20+ yards, the ninth-highest in the league.", '2': "De'Von Achane heads into the Week 2 Thursday night affair against the Bills with an ankle concern. The short week and Achane's need for speed are a problem, so it's fair to wonder if he could be rested for the benefit of the remaining schedule. When on the field in Week 1, Achane was heavily featured, capturing 10 rushes and seven targets, finishing with 100 total yards and a touchdown. Last year, he also enjoyed success against the Bills, logging 8.3 YPC and three touchdowns. His volume over also-injured RB Raheem Mostert in Week 1 is encouraging, as is the game's high-scoring potential. Health just needs to be trusted."}}, 'ownership': {'auctionValueAverage': 17.999003984063744, 'averageDraftPosition': 52.231935088793634, 'percentChange': -0.05084838271403669, 'percentOwned': 98.20167659438995, 'percentStarted': 85.85352233699103}, 'proTeamId': 15, 'rankings': {'0': [{'auctionVa</t>
+          <t>[{'id': 1, 'roster': {'appliedStatTotal': 93.6, 'entries': [{'acquisitionDate': 1724469554158, 'acquisitionType': 'DRAFT', 'injuryStatus': 'NORMAL', 'lineupSlotId': 4, 'pendingTransactionIds': None, 'playerId': 4241389, 'playerPoolEntry': {'appliedStatTotal': 19.0, 'id': 4241389, 'keeperValue': 1, 'keeperValueFuture': 1, 'lineupLocked': False, 'onTeamId': 1, 'player': {'active': True, 'defaultPositionId': 3, 'draftRanksByRankType': {'STANDARD': {'auctionValue': 55, 'published': False, 'rank': 4, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 0}, 'PPR': {'auctionValue': 55, 'published': False, 'rank': 4, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 0}}, 'droppable': False, 'eligibleSlots': [3, 4, 5, 23, 7, 20, 21], 'firstName': 'CeeDee', 'fullName': 'CeeDee Lamb', 'id': 4241389, 'injured': False, 'injuryStatus': 'ACTIVE', 'lastName': 'Lamb', 'lastNewsDate': 1726436076000, 'lastVideoDate': 1726497149000, 'outlooks': {'outlooksByWeek': {'1': 'CeeDee Lamb is fresh off a lucrative contract extension and should be primed for another huge season in Dallas as the undisputed top option.  Dak Prescott returns under center, and the tandem connected for career-best numbers for Lamb in 2023.  Lamb caught a staggering 135 passes for 1,749 yards and 12 touchdowns.  With a lackluster running game and limited depth behind Lamb at wideout, the star wideout should see all the opportunities he can handle.  Unfortunately, Week 1 may provide a stiff test, as Lamb not only may not be in game shape yet due to signing the extension late, but Dallas will also face a Cleveland pass defense that allowed the fewest yards in the NFL last season.', '2': 'CeeDee Lamb was targeted 10 times in the season opener for Dallas, parlaying those opportunities into five catches for 61 yards.  Not only did Lamb show little rust, but he barely saw the ball in the second half as the game got out of hand, so there is little concern over his overall stat line and future projections. With Dak Prescott locked up with a lucrative contact extension, the duo can focus solely on football.  However, the Cowboys will face a Saints defense in Week 2 that allowed just 135 passing yards in its season opener, and finished 10th in the NFL in passing yards allowed in 2023.'}}, 'ownership': {'auctionValueAverage': 52.058690744920995, 'averageDraftPosition': 4.606622214334609, 'percentChange': 0.001013521535881523, 'percentOwned': 99.92998381390521, 'percentStarted': 98.85312457526946}, 'proTeamId': 6, 'rankings': {'0': [{'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 5, 'rankSourceId': 5, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 2.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 11, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 1.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}], '1': [{'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 5, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 2.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 3, 'rankSourceId': 11, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 1.875, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 3, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}], '2': [{'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': False, 'rank': 2, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 2.0, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 1.375, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}], '3': [{'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 1.0, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 1.125, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 2, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 1, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}]}, 'seasonOutlook': "Lamb led the entire fantasy football world in fantasy points last season, surpassing 25 points in eight games and truly dominating the second half of the season. Lamb started slow -- a career theme, actually -- but from Week 8 on, he averaged 28.5 fantasy points per game. His 313.6 fantasy points in the final 11 weeks alone topped the full-season performance of all but nine NFL players. Lamb is not only a clear top-five fantasy pick, but with his durability and the Cowboys' high-octane offense, one can make the case for him as a solid choice to go No. 1 overall.", 'stats': [{'appliedAverage': 26.07058823529412, 'appliedStats': {'53': 135.0, '72': -4.0, '24': 11.3, '56': 35.0, '25': 12.0, '57': 5.0, '42': 174.9, '43': 72.0, '44': 2.0}, 'appliedTotal': 443.20000000000005, 'externalId': '2023', 'id': '002023', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2023, 'statSourceId': 0, 'statSplitTypeId': 0, 'stats': {'23': 14.0, '24': 113.0, '25': 2.0, '27': 18.0, '28': 7.0, '29': 1.0, '30': 1.0, '39': 8.07142857, '40': 6.64705882, '41': 135.0, '42': 1749.0, '43': 12.0, '44': 1.0, '45': 2.0, '46': 1.0, '47': 342.0, '48': 166.0, '49': 76.0, '50': 62.0, '51': 27.0, '52': 9.0, '53': 135.0, '54': 19.0, '55': 7.0, '56': 7.0, '57': 1.0, '58': 181.0, '59': 680.0, '60': 12.95555556, '61': 102.88235294, '67': 3.0, '68': 3.0, '71': 2.0, '72': 2.0, '73': 2.0, '108': 1.0, '109': 1.0, '155': 12.0, '156': 5.0, '158': 86.0, '179': 1.0, '180': 1.0, '183': 3.0, '184': 5.0, '185': 2.0, '210': 17.0, '212': 6.0, '213': 80.0}}, {'appliedAverage': 16.3, 'appliedStats': {'53': 9.0, '24': 2.5, '42': 15.100000000000001, '43': 6.0}, 'appliedTotal': 32.6, 'externalId': '2024', 'id': '002024', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2024, 'statSourceId': 0, 'statSplitTypeId': 0, 'stats': {'23': 3.0, '24': 25.0, '27': 5.0, '28': 2.0, '29': 1.0, '30': 1.0, '39': 8.33333333, '40': 12.5, '41': 9.0, '42': 151.0, '43': 1.0, '45': 1.0, '46': 1.0, '47': 30.0, '48': 15.0, '49': 7.0, '50': 5.0, '51': 2.0, '53': 9.0, '54': 1.0, '58': 17.0, '59': 89.0, '60': 16.77777778, '61': 75.5, '108': 1.0, '109': 1.0, '155': 1.0, '156': 1.0, '158': 6.0, '210': 2.0, '212': 2.0, '213': 5.0}}, {'appliedStats': {'37': 0.008400000000000001, '38': 0.00028649999999999997, '72': -0.154323118, '42': 9.269836606, '43': 2.9889260039999996, '44': 0.048442506, '53': 7.273066778, '24': 0.627405203, '56': 1.939679315, '25': 0.250724208, '57': 0.06, '26': 0.004889618, '63': 0.00372}, 'appliedTotal': 22.32105362, 'externalId': '20242', 'id': '1120242', 'proTeamId': 0, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 1, 'stats': {'23': 0.994772935, '24': 6.27405203, '25': 0.041787368, '26': 0.002444809, '27': 1.0, '35': 0.001841105, '36': 0.001288773, '37': 0.00168, '38': 5.73e-05, '39': 6.307019229, '40': 6.27405203, '42': 92.69836606, '43': 0.498154334, '44': 0.024221253, '45': 0.015002371, '46': 0.009804049, '47': 18.0, '48': 9.0, '49': 4.0, '50': 3.0, '51': 1.0, '53': 7.273066778, '56': 0.387935863, '57': 0.012, '58': 10.70694067, '60': 12.74543035, '61': 92.69836606, '62': 0.026666062, '63': 0.00062, '66': 0.016942503, '67': 0.123871442, '68': 0.140813945, '70': 0.007793552, '71': 0.069368007, '72': 0.077161559, '73': 0.077161559, '210': 1.0, '212': 0.425315312, '213': 4.350102185}}, {'appliedAverage': 0.0, 'appliedStats': {}, 'appliedTotal': 0.0, 'externalId': '2023', 'id': '102023', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2023, 'statSourceId': 1, 'statSplitTypeId': 0, 'stats': {'210': 15.11764706}}, {'appliedAverage': 23.298337917500003, 'appliedStats': {'37': 0.147065105, '38': 0.00501877, '72': -2.50757353, '42': 154.0135386, '43': 53.365312356000004, '44': 0.860541442, '53': 118.3022604, '24': 10.44934095, '56': 32.56849088, '25': 4.4160537, '57': 1.007272915, '26': 0.085692224, '63': 0.060392867999999995}, 'appliedTotal': 372.77340668000005, 'externalId': '20242', 'id': '1220242', 'proTeamId': 0, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 2, 'stats': {'23': 16.01384628, '24': 104.4934095, '25': 0.73600895, '26': 0.042846112, '27': 20.0, '28': 10.0, '29': 5.0, '30': 4.0, '31': 2.0, '33': 3.0, '34': 1.0, '35': 0.029640958, '36': 0.020748671, '37': 0.029413021, '38': 0.001003754, '39': 6.52519124, '40': 6.530838091, '42': 1540.135386, '43': 8.894218726, '44': 0.430270721, '45': 0.272143954, '46': 0.177846074, '47': 308.0, '48': 154.0, '49': 77.0, '50': 61.0, '51': 30.0, '53': 118.3022604, '56': 6.513698176, '57': 0.201454583, '58': 172.4214041, '60': 13.01864717, '61': 96.25846165, '62': 0.473116832, '63': 0.010065478, '66': 0.272740274, '67': 2.014868283, '68': 2.287608557, '70': 0.125460526, '71': 1.128326238, '72': 1.253786765, '73': 1.253786765, '210': 16.0, '212': 6.999949665, '213': 71.99078425}}, {'appliedAverage': 22.99057035133334, 'appliedStats': {'37': 0.09286576499999999, '38': 0.0031691500000000004, '72': -2.34998034, '42': 140.6375137, '43': 51.297680111999995, '44': 0.8287027, '53': 112.8483528, '24': 8.590268806000001, '56': 27.196274705, '25': 4.724357028, '57': 0.8411219000000001, '26': 0.091825218, '63': 0.056403726}, 'appliedTotal': 344.85855527000007, 'externalId': '2024', 'id': '102024', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 0, 'stats': {'23': 12.59574791, '24': 85.90268806, '25': 0.787392838, '26': 0.045912609, '27': 17.0, '28': 8.0, '29': 4.0, '30': 3.0, '31': 1.0, '33': 2.0, '34': 1.0, '35': 0.023258451, '36': 0.016280916, '37': 0.018573153, '38': 0.00063383, '39': 6.819975174, '40': 5.682278976, '42': 1406.375137, '43': 8.549613352, '44': 0.41435135, '45': 0.273050015, '46': 0.178438185, '47': 281.0, '48': 140.0, '49': 70.0, '50': 56.0, '51': 28.0, '53': 112.8483528, '56': 5.439254941, '57': 0.16822438, '58': 159.8549407, '60': 12.46252252, '61': 93.02870559, '62': 0.460263958, '63': 0.009400621, '66': 0.214524836, '67': 1.921979902, '68': 2.136504738, '70': 0.098681424, '71': 1.076308745, '72': 1.17499017, '73': 1.17499017, '210': 15.11764706, '212': 6.324756161, '213': 66.85053129}}, {'appliedStats': {'53': 4.0, '42': 9.0, '43': 6.0}, 'appliedTotal': 19.0, 'externalId': '401671709', 'id': '01401671709', 'proTeamId': 6, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 0, 'statSplitTypeId': 1, 'stats': {'41': 4.0, '42': 90.0, '43': 1.0, '108': 1.0, '109': 1.0, '45': 1.0, '46': 1.0, '47': 18.0, '48': 9.0, '49': 4.0, '210': 1.0, '50': 3.0, '51': 1.0, '213': 3.0, '53': 4.0, '58': 7.0, '59': 57.0, '60': 22.5, '156': 1.0, '61': 90.0, '158': 6.0}}, {'appliedAverage': 23.2649410182, 'appliedStats': {'37': 0.133142055, '38': 0.00454363, '72': -2.287229452, '42': 146.142612, '43': 50.752148478, '44': 0.82076081, '53': 107.8009548, '24': 9.631182205000002, '56': 30.79490113, '25': 4.093916225999999, '57': 0.952419625, '26': 0.079667356, '63': 0.05509641}, 'appliedTotal': 348.974115273, 'externalId': '20243', 'id': '1220243', 'proTeamId': 0, 'scoringPeriodId': 3, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 2, 'stats': {'23': 14.73562849, '24': 96.31182205, '25': 0.682319371, '26': 0.039833678, '27': 19.0, '28': 9.0, '29': 4.0, '30': 3.0, '31': 1.0, '33': 2.0, '34': 1.0, '35': 0.027270392, '36': 0.019089274, '37': 0.026628411, '38': 0.000908726, '39': 6.535983321, '40': 6.420788137, '42': 1461.42612, '43': 8.458691413, '44': 0.410380405, '45': 0.294006383, '46': 0.192133171, '47': 292.0, '48': 146.0, '49': 73.0, '50': 58.0, '51': 29.0, '53': 107.8009548, '56': 6.158980226, '57': 0.190483925, '58': 157.4584644, '60': 13.5567085, '61': 97.428408, '62': 0.450214083, '63': 0.009182735, '66': 0.250970272, '67': 1.836015001, '68': 2.086985273, '70': 0.115446325, '71': 1.0281684, '72': 1.143614726, '73': 1.143614726, '210': 15.0, '212': 6.484132512, '213': 67.31623366}}, {'appliedStats': {'37': 0.0064, '38': 0.0002175, '72': -0.158918004, '42': 10.28710143, '43': 3.01401801, '44': 0.049032914, '53': 7.576957799, '24': 0.5476959944, '56': 2.179578985, '25': 0.24360148199999998, '57': 0.0675, '26': 0.00476858, '63': 0.003822}, 'appliedTotal': 23.8217766904, 'externalId': '20243', 'id': '1120243', 'proTeamId': 0, 'scoringPeriodId': 3, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 1, 'stats': {'23': 0.918065519, '24': 5.476959944, '25': 0.040600247, '26': 0.00238429, '27': 1.0, '35': 0.001697942, '36': 0.001188559, '37': 0.00128, '38': 4.35e-05, '39': 5.965761518, '40': 5.476959944, '42': 102.8710143, '43': 0.502336335, '44': 0.024516457, '45': 0.021596822, '46': 0.014113523, '47': 20.0, '48': 10.0, '49': 5.0, '50': 4.0, '51': 2.0, '53': 7.576957799, '56': 0.435915797, '57': 0.0135, '58': 10.79108451, '60': 13.57682291, '61': 102.8710143, '62': 0.026900747, '63': 0.000637, '66': 0.015636059, '67': 0.12904717, '68': 0.144683229, '70': 0.007192587, '71': 0.072266415, '72': 0.079459002, '73': 0.079459002, '210': 1.0, '212': 0.392856022, '213': 4.701600795}}], 'universeId': 2}, 'ratings': {'0': {'positionalRanking': 19, 'totalRanking': 49, 'totalRating': 32.6}}, 'rosterLocked': False, 'status': 'ONTEAM', 'tradeLocked': False}, 'status': 'NORMAL'}, {'acquisitionDate': 1724469554158, 'acquisitionType': 'DRAFT', 'injuryStatus': 'NORMAL', 'lineupSlotId': 20, 'pendingTransactionIds': None, 'playerId': 4426515, 'playerPoolEntry': {'appliedStatTotal': 0.0, 'id': 4426515, 'keeperValue': 0, 'keeperValueFuture': 2, 'lineupLocked': False, 'onTeamId': 1, 'player': {'active': True, 'defaultPositionId': 3, 'draftRanksByRankType': {'STANDARD': {'auctionValue': 45, 'published': False, 'rank': 13, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 0}, 'PPR': {'auctionValue': 46, 'published': False, 'rank': 12, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 0}}, 'droppable': True, 'eligibleSlots': [3, 4, 5, 23, 7, 20, 21], 'firstName': 'Puka', 'fullName': 'Puka Nacua', 'id': 4426515, 'injured': True, 'injuryStatus': 'INJURY_RESERVE', 'lastName': 'Nacua', 'lastNewsDate': 1726398215000, 'lastVideoDate': 1725978304000, 'outlooks': {'outlooksByWeek': {'1': "Puka Nacua has been a full participant in recent practices after suffering a knee injury in early August, and he is ready to start for the Rams in Week 1 at the Lions. While Detroit added much needed help to their secondary this offseason, they have a long way to go after allowing 28 receiving touchdowns in 2023, sixth worst in the NFL.  The return of a healthy Cooper Kupp might hurt Nacua's ceiling somewhat, but he still averaged over 8 targets per game when Kupp was active last season. Nacua remains a strong fantasy option to open the season.", '2': "Puka Nacua is slated to be placed in IR after suffering a knee injury in the season opener. He managed 4 receptions for 35 yards before leaving the game midway through the second quarter. Tyler Johnson and Demarcus Robinson will likely move up the depth chart while Nacua is out, and tight end Colby Parkinson might also see increased usage in the passing game. The Rams play a Cardinals defense that has one of the league's worst pass rushes in Week 2, and they are coming off of a Week 1 performance where they allowed 232 receiving yards to Buffalo."}}, 'ownership': {'auctionValueAverage': 37.59480812641083, 'averageDraftPosition': 28.24037218264331, 'percentChange': -2.633544277865397, 'percentOwned': 97.15708543210283, 'percentStarted': 14.666177239797202}, 'proTeamId': 14, 'rankings': {'0': [{'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 8, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 11, 'rankSourceId': 5, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 8, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 8.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 11, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 8, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 7.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}], '1': [{'auctionValue': 0, 'published': True, 'rank': 6, 'rankSourceId': 9, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 8, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 6, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 10, 'rankSourceId': 5, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 6, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 7, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 6, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 8.25, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 8, 'rankSourceId': 11, 'rankType': 'STANDARD', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 5, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'averageRank': 5.875, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 5, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 4}, {'auctionValue': 0, 'published': True, 'rank': 6, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 4}], '2': []}, 'seasonOutlook': "Rostered in just 1.6% of ESPN Fantasy leagues ahead of Week 1 last season, Nacua proved to be the waiver wire's most generous offering. The first-year slotman immediately filled injured Cooper Kupp's shoes to lead the team in routes, targets, catches and yards, while regularly dazzling after the catch (639 YAC, WR5). Nacua's volume dipped after Kupp returned, but the BYU product continued to churn, setting both the NFL rookie receiving yards and receptions records. Given Kupp's age and injury history, Nacua is a good bet to remain Matthew Stafford's most productive pass-catcher again in 2024. He's a solid fantasy WR1.", 'stats': [{'appliedAverage': 19.61764705882353, 'appliedStats': {'53': 105.0, '24': 8.9, '56': 35.0, '42': 148.6, '43': 36.0}, 'appliedTotal': 333.5, 'externalId': '2023', 'id': '002023', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2023, 'statSourceId': 0, 'statSplitTypeId': 0, 'stats': {'23': 12.0, '24': 89.0, '27': 14.0, '28': 5.0, '29': 1.0, '30': 1.0, '39': 7.41666667, '40': 5.23529412, '41': 105.0, '42': 1486.0, '43': 6.0, '45': 1.0, '46': 1.0, '47': 290.0, '48': 142.0, '49': 67.0, '50': 51.0, '51': 22.0, '52': 7.0, '53': 105.0, '54': 14.0, '55': 2.0, '56': 7.0, '58': 160.0, '59': 640.0, '60': 14.15238095, '61': 87.41176471, '67': 1.0, '68': 1.0, '108': 1.0, '109': 1.0, '155': 10.0, '156': 7.0, '158': 36.0, '183': 2.0, '184': 1.0, '185': 2.0, '210': 17.0, '212': 5.0, '213': 68.0}}, {'appliedAverage': 8.2, 'appliedStats': {'53': 4.0, '24': 0.7000000000000001, '42': 3.5}, 'appliedTotal': 8.2, 'externalId': '2024', 'id': '002024', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2024, 'statSourceId': 0, 'statSplitTypeId': 0, 'stats': {'23': 1.0, '24': 7.0, '27': 1.0, '39': 7.0, '40': 7.0, '41': 4.0, '42': 35.0, '47': 7.0, '48': 3.0, '49': 1.0, '50': 1.0, '53': 4.0, '58': 4.0, '59': 17.0, '60': 8.75, '61': 35.0, '156': 1.0, '210': 1.0, '213': 1.0}}, {'appliedStats': {}, 'appliedTotal': 0.0, 'externalId': '20242', 'id': '1120242', 'proTeamId': 0, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 1, 'stats': {}}, {'appliedAverage': 0.0, 'appliedStats': {}, 'appliedTotal': 0.0, 'externalId': '2023', 'id': '102023', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2023, 'statSourceId': 1, 'statSplitTypeId': 0, 'stats': {'210': 15.11764706}}, {'appliedStats': {}, 'appliedTotal': 0.0, 'externalId': '401671754', 'id': '01401671754', 'proTeamId': 14, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 0, 'statSplitTypeId': 1, 'stats': {}}, {'appliedAverage': 17.30220733141667, 'appliedStats': {'37': 0.053716155, '38': 0.001833125, '72': -1.491444376, '42': 91.33565127000001, '43': 25.484000844, '44': 0.452071826, '53': 66.99761166, '24': 5.501449084000001, '56': 16.278718115, '25': 2.43348615, '57': 0.5034655100000001, '26': 0.040021014, '63': 0.0359076}, 'appliedTotal': 207.62648797700004, 'externalId': '20242', 'id': '1220242', 'proTeamId': 0, 'scoringPeriodId': 2, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 2, 'stats': {'23': 8.902987175, '24': 55.01449084, '25': 0.405581025, '26': 0.020010507, '27': 11.0, '28': 5.0, '29': 2.0, '30': 2.0, '31': 1.0, '33': 1.0, '35': 0.016439725, '36': 0.011507807, '37': 0.010743231, '38': 0.000366625, '39': 6.17932945, '40': 4.584540904, '42': 913.3565127, '43': 4.247333474, '44': 0.226035913, '45': 0.225960393, '46': 0.147665117, '47': 182.0, '48': 91.0, '49': 45.0, '50': 36.0, '51': 18.0, '53': 66.99761166, '56': 3.255743623, '57': 0.100693102, '58': 99.53108645, '60': 13.63267272, '61': 76.11304273, '62': 0.24604642, '63': 0.0059846, '66': 0.159541242, '67': 1.20059503, '68': 1.360136272, '70': 0.073388971, '71': 0.672333217, '72': 0.745722188, '73': 0.745722188, '210': 12.0, '212': 4.163409152, '213': 41.38299613}}, {'appliedAverage': 18.64430825933334, 'appliedStats': {'37': 0.074742155, '38': 0.0025506649999999997, '72': -1.981330754, '42': 123.77897060000001, '43': 35.29001862, '44': 0.62993454, '53': 88.52222168, '24': 7.724230609999999, '56': 20.948828235, '25': 3.914033604, '57': 0.647901905, '26': 0.06477052, '63': 0.047751510000000004}, 'appliedTotal': 279.6646238900001, 'externalId': '2024', 'id': '102024', 'proTeamId': 0, 'scoringPeriodId': 0, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 0, 'stats': {'23': 12.41374328, '24': 77.2423061, '25': 0.652338934, '26': 0.03238526, '27': 15.0, '28': 7.0, '29': 3.0, '30': 3.0, '31': 1.0, '33': 2.0, '34': 1.0, '35': 0.022920017, '36': 0.016044012, '37': 0.014948431, '38': 0.000510133, '39': 6.222321852, '40': 5.109413244, '42': 1237.789706, '43': 5.88166977, '44': 0.31496727, '45': 0.313634897, '46': 0.204960405, '47': 247.0, '48': 123.0, '49': 61.0, '50': 49.0, '51': 24.0, '53': 88.52222168, '56': 4.189765647, '57': 0.129580381, '58': 135.6325858, '60': 13.98281339, '61': 81.87714011, '62': 0.34735253, '63': 0.007958585, '66': 0.222453877, '67': 1.586315345, '68': 1.808769222, '70': 0.102328784, '71': 0.888336593, '72': 0.990665377, '73': 0.990665377, '210': 15.11764706, '212': 5.9205953, '213': 55.56591512}}, {'appliedAverage': 18.763740349916663, 'appliedStats': {'37': 0.050505350000000004, '38': 0.0017235549999999999, '72': -1.616129346, '42': 100.6640736, '43': 24.351765636, '44': 0.435062454, '53': 73.44436919, '24': 5.343662179, '56': 19.68924929, '25': 2.117756928, '57': 0.608945855, '26': 0.035077012, '63': 0.038822496}, 'appliedTotal': 225.16488419899997, 'externalId': '20243', 'id': '1220243', 'proTeamId': 0, 'scoringPeriodId': 3, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 2, 'stats': {'23': 8.617672787, '24': 53.43662179, '25': 0.352959488, '26': 0.017538506, '27': 10.0, '28': 5.0, '29': 2.0, '30': 2.0, '31': 1.0, '33': 1.0, '35': 0.015909297, '36': 0.011136508, '37': 0.01010107, '38': 0.000344711, '39': 6.200818145, '40': 4.453051816, '42': 1006.640736, '43': 4.058627606, '44': 0.217531227, '45': 0.233483695, '46': 0.152581595, '47': 201.0, '48': 100.0, '49': 50.0, '50': 40.0, '51': 20.0, '53': 73.44436919, '56': 3.937849858, '57': 0.121789171, '58': 108.7698378, '60': 13.70616627, '61': 83.88672799, '62': 0.235069732, '63': 0.006470416, '66': 0.154428417, '67': 1.316120716, '68': 1.470549134, '70': 0.071037072, '71': 0.737027601, '72': 0.808064673, '73': 0.808064673, '210': 12.0, '212': 4.053568688, '213': 45.347673}}, {'appliedStats': {}, 'appliedTotal': 0.0, 'externalId': '20243', 'id': '1120243', 'proTeamId': 0, 'scoringPeriodId': 3, 'seasonId': 2024, 'statSourceId': 1, 'statSplitTypeId': 1, 'stats': {}}], 'universeId': 2}, 'ratings': {'0': {'positionalRanking': 79, 'totalRanking': 238, 'totalRating': 8.2}}, 'rosterLocked': False, 'status': 'ONTEAM', 'tradeLocked': False}, 'status': 'NORMAL'}, {'acquisitionDate': 1724469554158, 'acquisitionType': 'DRAFT', 'injuryStatus': 'NORMAL', 'lineupSlotId': 2, 'pendingTransactionIds': None, 'playerId': 4429160, 'playerPoolEntry': {'appliedStatTotal': 29.5, 'id': 4429160, 'keeperValue': 0, 'keeperValueFuture': 3, 'lineupLocked': False, 'onTeamId': 1, 'player': {'active': True, 'defaultPositionId': 2, 'draftRanksByRankType': {'STANDARD': {'auctionValue': 19, 'published': False, 'rank': 43, 'rankSourceId': 0, 'rankType': 'STANDARD', 'slotId': 0}, 'PPR': {'auctionValue': 19, 'published': False, 'rank': 43, 'rankSourceId': 0, 'rankType': 'PPR', 'slotId': 0}}, 'droppable': True, 'eligibleSlots': [2, 3, 23, 7, 20, 21], 'firstName': "De'Von", 'fullName': "De'Von Achane", 'id': 4429160, 'injured': False, 'injuryStatus': 'ACTIVE', 'lastName': 'Achane', 'lastNewsDate': 1726198551000, 'lastVideoDate': 1726237416000, 'outlooks': {'outlooksByWeek': {'1': "De'Von Achane will look to catch lightning in a bottle for the Dolphins in Week 1 against Jacksonville. Achane averaged a whopping 7.8 ypc as a rookie, scoring eight times in 11 games. But he also missed six games and tallied double-digit carries just five times while also not factoring much in the passing game, catching 27 balls for a lower ypc than his rushing prowess. Healthy and ready to run, Achane faces a Jaguars defense that ranked ninth in total rushing allowed, but a getable 4.2 ypc and 13 rushes of 20+ yards, the ninth-highest in the league.", '2': "De'Von Achane heads into the Week 2 Thursday night affair against the Bills with an ankle concern. The short week and Achane's need for speed are a problem, so it's fair to wonder if he could be rested for the benefit of the remaining schedule. When on the field in Week 1, Achane was heavily featured, capturing 10 rushes and seven targets, finishing with 100 total yards and a touchdown. Last year, he also enjoyed success against the Bills, logging 8.3 YPC and three touchdowns. His volume over also-injured RB Raheem Mostert in Week 1 is encouraging, as is the game's high-scoring potential. Health just needs to be trusted."}}, 'ownership': {'auctionValueAverage': 18.57787810383747, 'averageDraftPosition': 50.286304634418414, 'percentChange': -0.008022549037676185, 'percentOwned': 98.20113550714788, 'percentStarted': 88.65759331792965}, 'proTeamId': 15, 'rankings': {'0': [{'auctionValue': 0, 'published': True, 'rank': 17, 'rankSourceId': 7, 'rankType': 'STANDARD', 'slotId': 2}, {'auctionValue': 0, 'published': True, 'rank': 17, 'rankSourceId': 7, 'rankType': 'PPR', 'slotId': 2}, {'auctionValue': 0, 'published': True, 'rank': 19, 'rankSourceId': 5, 'rankType': 'STANDARD', 'slotId': 2}, {'auctionValue': 0, 'published': True, 'rank': 17, 'rankSourceId': 6, 'rankType': 'PPR', 'slotId': 2}, {'auctionValue': 0, 'published': True, 'rank': 16, 'rankSourceId': 10, 'rankType': 'PPR', 'slotId': 2}, {'auctionValue': 0, 'published': True, 'rank': 17, 'rankSourceId': 5, 'rankType': 'PPR', 'slotId': 2}, {'auctionValue': 0, 'published': True, 'rank': 11, 'rankSourceId': 11, 'rankType': 'PPR', 'slotId': 2}, {'auctionValue': 0, 'published': True, 'rank': 17, 'rankSourceId': 3, 'rankType': 'STANDARD', 'slotId': 2}, {'auctionValue': 0, 'published': True, 'rank': 11, 'rankSourceId': 11, 'rankType': 'STANDARD', 'slotId': 2}, {'auctionValue': 0, 'published': True, 'rank': 17, 'rankSourceId': 12, 'rankType': 'PPR', 'slotId': 2}, {'auctionValue': 0, 'published': True, 'rank': 17, 'rankSourceId': 3, 'rankType': 'PPR', 'slotId': 2}, {'auctionValue': 0, 'averageRank': 16.0, 'published': True, 'rank': 0, 'rankSourceId': 0, 'rankType': '</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>17</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>1726479407025</v>
+        <v>1726558968205</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>1726479406678</v>
+        <v>1726558967125</v>
       </c>
       <c r="AB2" t="n">
         <v>1</v>
